--- a/Module_weight.xlsx
+++ b/Module_weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucar\PycharmProjects\NJORD_2022_Albin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8931A2-F7AC-4D57-814A-D181F230F6A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30538924-97B6-4398-A794-D0E61AC1BB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4848" yWindow="852" windowWidth="17280" windowHeight="8964" xr2:uid="{72A38CDB-713C-4C0B-92DD-00919308B67B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{72A38CDB-713C-4C0B-92DD-00919308B67B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Segment</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>2007</t>
+  </si>
+  <si>
+    <t>2021</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +114,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -169,7 +178,31 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="24">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
@@ -525,13 +558,13 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight1 2" pivot="0" count="7" xr9:uid="{A7F8016B-1ACA-4F9A-A5FC-A27D2B5ED95B}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
-      <tableStyleElement type="headerRow" dxfId="21"/>
-      <tableStyleElement type="totalRow" dxfId="20"/>
-      <tableStyleElement type="firstColumn" dxfId="19"/>
-      <tableStyleElement type="lastColumn" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="totalRow" dxfId="21"/>
+      <tableStyleElement type="firstColumn" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -546,24 +579,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A539B2AC-A056-46BE-9122-A5599DAD159E}" name="MainstreamPrices" displayName="MainstreamPrices" ref="A1:O2" totalsRowShown="0" tableBorderDxfId="15">
-  <autoFilter ref="A1:O2" xr:uid="{A539B2AC-A056-46BE-9122-A5599DAD159E}"/>
-  <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{4D094BAA-D1BB-436D-B21D-80685518606E}" name="Segment" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{6417C064-B07D-42B3-899A-D6C48475D521}" name="2007" dataDxfId="13"/>
-    <tableColumn id="14" xr3:uid="{DA2E9DA6-0132-4041-9993-B03DA0E05DD9}" name="2008" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{13F94665-481F-498B-98D8-08325F8924EB}" name="2009" dataDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{1725F7C8-81B7-4974-80C7-7832B9E32174}" name="2010" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{294B83A3-33C4-42FF-B713-99D50178F9B6}" name="2011" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{9D8E6968-3533-4E90-B124-76B3F383E168}" name="2012" dataDxfId="8"/>
-    <tableColumn id="9" xr3:uid="{AD197EF9-9987-45E2-A4FE-38D1652DBC59}" name="2013" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{34E641B7-798A-4A10-9613-D4BBAFE2FE83}" name="2014" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{9DD5A1B2-012D-49D3-BDA6-C04FC5619DE0}" name="2015" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{1DB4312A-1258-40F0-BD2D-805BDA28B2D5}" name="2016" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{92FE96E6-8F03-4AE1-B4C4-9DD7EC705DD0}" name="2017" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D0427B53-EBC7-48FD-AD41-0D24903DDA9B}" name="2018" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9A242FBD-0CB6-4CF6-8710-6C26A01F4430}" name="2019" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{5A21C0A1-02DC-4F85-94DA-62FDCF85ACC7}" name="2020" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A539B2AC-A056-46BE-9122-A5599DAD159E}" name="MainstreamPrices" displayName="MainstreamPrices" ref="A1:P2" totalsRowShown="0" tableBorderDxfId="16">
+  <autoFilter ref="A1:P2" xr:uid="{A539B2AC-A056-46BE-9122-A5599DAD159E}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{4D094BAA-D1BB-436D-B21D-80685518606E}" name="Segment" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{6417C064-B07D-42B3-899A-D6C48475D521}" name="2007" dataDxfId="14"/>
+    <tableColumn id="14" xr3:uid="{DA2E9DA6-0132-4041-9993-B03DA0E05DD9}" name="2008" dataDxfId="13"/>
+    <tableColumn id="13" xr3:uid="{13F94665-481F-498B-98D8-08325F8924EB}" name="2009" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{1725F7C8-81B7-4974-80C7-7832B9E32174}" name="2010" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{294B83A3-33C4-42FF-B713-99D50178F9B6}" name="2011" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{9D8E6968-3533-4E90-B124-76B3F383E168}" name="2012" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{AD197EF9-9987-45E2-A4FE-38D1652DBC59}" name="2013" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{34E641B7-798A-4A10-9613-D4BBAFE2FE83}" name="2014" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{9DD5A1B2-012D-49D3-BDA6-C04FC5619DE0}" name="2015" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{1DB4312A-1258-40F0-BD2D-805BDA28B2D5}" name="2016" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{92FE96E6-8F03-4AE1-B4C4-9DD7EC705DD0}" name="2017" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{D0427B53-EBC7-48FD-AD41-0D24903DDA9B}" name="2018" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{9A242FBD-0CB6-4CF6-8710-6C26A01F4430}" name="2019" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{5A21C0A1-02DC-4F85-94DA-62FDCF85ACC7}" name="2020" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{F2314072-F395-490D-868A-989E8844ECF4}" name="2021" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -866,15 +900,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF22006B-9C46-42B8-8CEE-48976D2DECD5}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -920,8 +954,11 @@
       <c r="O1" t="s">
         <v>8</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -967,8 +1004,12 @@
       <c r="O2" s="6">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="P2" s="2">
+        <v>5.1999999999999998E-2</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
